--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\SOP-MFG-1 生产管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\Extrusion\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <r>
       <rPr>
@@ -1880,6 +1880,10 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZD-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2485,7 +2489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2567,6 +2571,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2695,6 +2702,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3014,42 +3039,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="39" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="46" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -3241,12 +3266,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -3260,10 +3285,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="29"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -3277,46 +3302,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="45"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3385,48 +3410,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="59" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="60"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -3490,15 +3515,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="65"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="66"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -3512,13 +3537,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="67"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -3576,15 +3601,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -3598,13 +3623,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -3618,13 +3643,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -3638,15 +3663,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="57"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -3660,13 +3685,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -3680,13 +3705,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="57"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -3700,13 +3725,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="57"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -3720,35 +3745,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="57"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="57" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="58"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3780,7 +3805,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3824,48 +3849,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="59" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="60"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -3921,71 +3946,71 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="65"/>
+      <c r="J5" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="75"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="76"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="11"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="25"/>
     </row>
     <row r="8" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -3993,21 +4018,21 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="70"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -4015,21 +4040,21 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4037,19 +4062,19 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4057,19 +4082,19 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4077,21 +4102,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="57"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4099,19 +4124,19 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -4119,19 +4144,19 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="57"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -4139,19 +4164,19 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="57"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -4159,35 +4184,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="57"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="57" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="58"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\Extrusion\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\SOP-MFG-1 生产管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <r>
       <rPr>
@@ -1880,10 +1880,6 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BZD-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2489,7 +2485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2571,9 +2567,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2702,24 +2695,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3039,42 +3014,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="40" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="47" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -3266,12 +3241,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -3285,10 +3260,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -3302,46 +3277,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="36"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="46"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3410,48 +3385,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="60" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="60" t="s">
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="61"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="60"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -3515,15 +3490,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="66"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="65"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -3537,13 +3512,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="67"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -3601,15 +3576,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -3623,13 +3598,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -3643,13 +3618,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="55"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="54"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -3663,15 +3638,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -3685,13 +3660,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -3705,13 +3680,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="56"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -3725,13 +3700,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="56"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -3745,35 +3720,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="58" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="59"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3805,7 +3780,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3849,48 +3824,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="60" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="60" t="s">
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="61"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="60"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -3946,71 +3921,71 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="75"/>
+      <c r="J5" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="65"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="76"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="25"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -4018,21 +3993,21 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -4040,21 +4015,21 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4062,19 +4037,19 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4082,19 +4057,19 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="55"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="54"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4102,21 +4077,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4124,19 +4099,19 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -4144,19 +4119,19 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="56"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -4164,19 +4139,19 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="56"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -4184,35 +4159,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="58" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="59"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\SOP-MFG-1 生产管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\Extrusion\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <r>
       <rPr>
@@ -1554,41 +1554,128 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t>产品代码/规格：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品批号：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期：             年        月      日；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内包序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品
+外观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装后外观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装袋
+热封线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴指示剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接上班
+数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取
+数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余
+数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用
+数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退库
+数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>标签：发放数量</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>张；  使用数量</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -1597,181 +1684,123 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日；</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标签：发放数量</t>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 张； 销毁数量 </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用数量</t>
-    </r>
-    <r>
-      <rPr>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 张。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>包装规格：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>销毁数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>只/包；  标签：中文□   英文□
+总 计：共包装</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 包；计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>只/片。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">备注：
+符合标准填写“√”，不符合填写“×”，不适用填写“N”。
 </t>
     </r>
     <r>
@@ -1779,107 +1808,19 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>符合标准填写</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>√</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，不符合填写</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>“×”</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，不适用填写“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>N”</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人：                                            年       月      日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核人：                                     年       月       日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1887,7 +1828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2008,11 +1949,49 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2485,7 +2464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2687,13 +2666,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3780,7 +3837,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3844,353 +3901,358 @@
       <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="59" t="s">
+      <c r="A3" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="71"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>49</v>
+      <c r="A4" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="74" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="72">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="61" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="65"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="78"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6" s="72">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="81"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="72">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="11"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="82"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="83"/>
     </row>
     <row r="8" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="A8" s="72">
         <v>4</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="86"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="72">
         <v>5</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="88"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="72">
         <v>6</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="88"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="72">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="88"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="A12" s="72">
         <v>8</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="90"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+      <c r="A13" s="72">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="90"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+      <c r="A14" s="72">
         <v>10</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+      <c r="A15" s="72">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="90"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+      <c r="A16" s="72">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="90"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="58"/>
+      <c r="A17" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J9:P11"/>
+    <mergeCell ref="J12:P16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J8:P8"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -4202,11 +4264,6 @@
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="J9:P11"/>
-    <mergeCell ref="J12:P16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J8:P8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
